--- a/project/CV/CV_67.xlsx
+++ b/project/CV/CV_67.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,2614 +498,1717 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>autauga</t>
+          <t>ada</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>597556</v>
+        <v>4862504</v>
       </c>
       <c r="D2" t="n">
-        <v>8368</v>
+        <v>47304</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>1001</v>
+        <v>16001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.053</v>
+        <v>0.118</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="I2" t="n">
-        <v>0.134</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.295</v>
+        <v>0.194</v>
       </c>
       <c r="K2" t="n">
-        <v>0.444</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>baldwin</t>
+          <t>adams</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1849755</v>
+        <v>24179</v>
       </c>
       <c r="D3" t="n">
-        <v>21001</v>
+        <v>370</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>1003</v>
+        <v>16003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.083</v>
+        <v>0.094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.059</v>
+        <v>0.2160000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.098</v>
+        <v>0.218</v>
       </c>
       <c r="J3" t="n">
-        <v>0.323</v>
+        <v>0.218</v>
       </c>
       <c r="K3" t="n">
-        <v>0.436</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>barbour</t>
+          <t>bannock</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>252352</v>
+        <v>702516</v>
       </c>
       <c r="D4" t="n">
-        <v>3688</v>
+        <v>6110</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>1005</v>
+        <v>16005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.067</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.121</v>
+        <v>0.193</v>
       </c>
       <c r="I4" t="n">
-        <v>0.12</v>
+        <v>0.176</v>
       </c>
       <c r="J4" t="n">
-        <v>0.201</v>
+        <v>0.195</v>
       </c>
       <c r="K4" t="n">
-        <v>0.491</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bibb</t>
+          <t>bear lake</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>241829</v>
+        <v>29054</v>
       </c>
       <c r="D5" t="n">
-        <v>4814</v>
+        <v>210</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>1007</v>
+        <v>16007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0.151</v>
       </c>
       <c r="H5" t="n">
-        <v>0.034</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>0.096</v>
+        <v>0.102</v>
       </c>
       <c r="J5" t="n">
-        <v>0.278</v>
+        <v>0.243</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5720000000000001</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>blount</t>
+          <t>benewah</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>582162</v>
+        <v>52908</v>
       </c>
       <c r="D6" t="n">
-        <v>7693</v>
+        <v>649</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>1009</v>
+        <v>16009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.053</v>
+        <v>0.038</v>
       </c>
       <c r="H6" t="n">
-        <v>0.114</v>
+        <v>0.059</v>
       </c>
       <c r="I6" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="J6" t="n">
-        <v>0.194</v>
+        <v>0.152</v>
       </c>
       <c r="K6" t="n">
-        <v>0.459</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bullock</t>
+          <t>bingham</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>163732</v>
+        <v>421315</v>
       </c>
       <c r="D7" t="n">
-        <v>4351</v>
+        <v>5217</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>1011</v>
+        <v>16011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.031</v>
+        <v>0.095</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.197</v>
       </c>
       <c r="I7" t="n">
-        <v>0.144</v>
+        <v>0.175</v>
       </c>
       <c r="J7" t="n">
-        <v>0.286</v>
+        <v>0.229</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>butler</t>
+          <t>blaine</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>276099</v>
+        <v>281621</v>
       </c>
       <c r="D8" t="n">
-        <v>10544</v>
+        <v>2285</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>1013</v>
+        <v>16013</v>
       </c>
       <c r="G8" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.102</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.257</v>
-      </c>
       <c r="J8" t="n">
-        <v>0.137</v>
+        <v>0.13</v>
       </c>
       <c r="K8" t="n">
-        <v>0.451</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>calhoun</t>
+          <t>boise</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1227611</v>
+        <v>28352</v>
       </c>
       <c r="D9" t="n">
-        <v>19807</v>
+        <v>340</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>1015</v>
+        <v>16015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.152</v>
+        <v>0.057</v>
       </c>
       <c r="H9" t="n">
-        <v>0.108</v>
+        <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.13</v>
+        <v>0.038</v>
       </c>
       <c r="J9" t="n">
-        <v>0.167</v>
+        <v>0.5489999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.442</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>chambers</t>
+          <t>bonner</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>392883</v>
+        <v>207018</v>
       </c>
       <c r="D10" t="n">
-        <v>12957</v>
+        <v>1509</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>1017</v>
+        <v>16017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.117</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="I10" t="n">
-        <v>0.15</v>
+        <v>0.119</v>
       </c>
       <c r="J10" t="n">
-        <v>0.136</v>
+        <v>0.241</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cherokee</t>
+          <t>bonneville</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>190498</v>
+        <v>1198430</v>
       </c>
       <c r="D11" t="n">
-        <v>4133</v>
+        <v>11387</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>1019</v>
+        <v>16019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.135</v>
+        <v>0.096</v>
       </c>
       <c r="H11" t="n">
-        <v>0.027</v>
+        <v>0.202</v>
       </c>
       <c r="I11" t="n">
-        <v>0.161</v>
+        <v>0.188</v>
       </c>
       <c r="J11" t="n">
-        <v>0.158</v>
+        <v>0.247</v>
       </c>
       <c r="K11" t="n">
-        <v>0.52</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>chilton</t>
+          <t>boundary</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>437445</v>
+        <v>58868</v>
       </c>
       <c r="D12" t="n">
-        <v>7782</v>
+        <v>690</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>1021</v>
+        <v>16021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.171</v>
       </c>
       <c r="I12" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="J12" t="n">
-        <v>0.194</v>
+        <v>0.185</v>
       </c>
       <c r="K12" t="n">
-        <v>0.618</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>choctaw</t>
+          <t>butte</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>96064</v>
+        <v>19005</v>
       </c>
       <c r="D13" t="n">
-        <v>3903</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>1023</v>
+        <v>16023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.049</v>
+        <v>0.107</v>
       </c>
       <c r="H13" t="n">
-        <v>0.038</v>
+        <v>0.213</v>
       </c>
       <c r="I13" t="n">
-        <v>0.126</v>
+        <v>0.159</v>
       </c>
       <c r="J13" t="n">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>clarke</t>
+          <t>camas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>349543</v>
+        <v>7716</v>
       </c>
       <c r="D14" t="n">
-        <v>4434</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>1025</v>
+        <v>16025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.049</v>
+        <v>0.1860000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I14" t="n">
-        <v>0.164</v>
+        <v>0.047</v>
       </c>
       <c r="J14" t="n">
-        <v>0.268</v>
+        <v>0.098</v>
       </c>
       <c r="K14" t="n">
-        <v>0.43</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>canyon</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>163555</v>
+        <v>2762988</v>
       </c>
       <c r="D15" t="n">
-        <v>4251</v>
+        <v>29054</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>1027</v>
+        <v>16027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.148</v>
+        <v>0.113</v>
       </c>
       <c r="H15" t="n">
-        <v>0.158</v>
+        <v>0.095</v>
       </c>
       <c r="I15" t="n">
-        <v>0.195</v>
+        <v>0.17</v>
       </c>
       <c r="J15" t="n">
-        <v>0.169</v>
+        <v>0.24</v>
       </c>
       <c r="K15" t="n">
-        <v>0.329</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cleburne</t>
+          <t>caribou</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>133199</v>
+        <v>62733</v>
       </c>
       <c r="D16" t="n">
-        <v>2413</v>
+        <v>1082</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>1029</v>
+        <v>16029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.151</v>
+        <v>0.1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="I16" t="n">
-        <v>0.138</v>
+        <v>0.191</v>
       </c>
       <c r="J16" t="n">
-        <v>0.217</v>
+        <v>0.202</v>
       </c>
       <c r="K16" t="n">
-        <v>0.368</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>cassia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>499936</v>
+        <v>332066</v>
       </c>
       <c r="D17" t="n">
-        <v>4741</v>
+        <v>2537</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>1031</v>
+        <v>16031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.101</v>
+        <v>0.134</v>
       </c>
       <c r="H17" t="n">
-        <v>0.152</v>
+        <v>0.223</v>
       </c>
       <c r="I17" t="n">
-        <v>0.094</v>
+        <v>0.102</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.149</v>
       </c>
       <c r="K17" t="n">
-        <v>0.466</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>colbert</t>
+          <t>clark</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>615636</v>
+        <v>7703</v>
       </c>
       <c r="D18" t="n">
-        <v>9070</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>1033</v>
+        <v>16033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.119</v>
       </c>
       <c r="H18" t="n">
-        <v>0.096</v>
+        <v>0.228</v>
       </c>
       <c r="I18" t="n">
-        <v>0.152</v>
+        <v>0.196</v>
       </c>
       <c r="J18" t="n">
-        <v>0.159</v>
+        <v>0.239</v>
       </c>
       <c r="K18" t="n">
-        <v>0.51</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>conecuh</t>
+          <t>clearwater</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>143274</v>
+        <v>77048</v>
       </c>
       <c r="D19" t="n">
-        <v>3132</v>
+        <v>545</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>1035</v>
+        <v>16035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.099</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.052</v>
+        <v>0.112</v>
       </c>
       <c r="I19" t="n">
-        <v>0.259</v>
+        <v>0.127</v>
       </c>
       <c r="J19" t="n">
-        <v>0.192</v>
+        <v>0.25</v>
       </c>
       <c r="K19" t="n">
-        <v>0.399</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>coosa</t>
+          <t>custer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>69220</v>
+        <v>23864</v>
       </c>
       <c r="D20" t="n">
-        <v>1317</v>
+        <v>228</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>1037</v>
+        <v>16037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.055</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.131</v>
+        <v>0.029</v>
       </c>
       <c r="I20" t="n">
-        <v>0.167</v>
+        <v>0.199</v>
       </c>
       <c r="J20" t="n">
-        <v>0.263</v>
+        <v>0.244</v>
       </c>
       <c r="K20" t="n">
-        <v>0.384</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>covington</t>
+          <t>elmore</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>429016</v>
+        <v>159605</v>
       </c>
       <c r="D21" t="n">
-        <v>8165</v>
+        <v>1340</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>1039</v>
+        <v>16039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.187</v>
+        <v>0.206</v>
       </c>
       <c r="H21" t="n">
-        <v>0.128</v>
+        <v>0.044</v>
       </c>
       <c r="I21" t="n">
-        <v>0.129</v>
+        <v>0.038</v>
       </c>
       <c r="J21" t="n">
-        <v>0.201</v>
+        <v>0.173</v>
       </c>
       <c r="K21" t="n">
-        <v>0.356</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>crenshaw</t>
+          <t>franklin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>153225</v>
+        <v>100289</v>
       </c>
       <c r="D22" t="n">
-        <v>6255</v>
+        <v>878</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>1041</v>
+        <v>16041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06</v>
+        <v>0.131</v>
       </c>
       <c r="H22" t="n">
-        <v>0.091</v>
+        <v>0.118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.199</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.233</v>
+        <v>0.256</v>
       </c>
       <c r="K22" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cullman</t>
+          <t>fremont</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>845066</v>
+        <v>103592</v>
       </c>
       <c r="D23" t="n">
-        <v>9902</v>
+        <v>1386</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>1043</v>
+        <v>16043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.13</v>
+        <v>0.111</v>
       </c>
       <c r="H23" t="n">
-        <v>0.024</v>
+        <v>0.206</v>
       </c>
       <c r="I23" t="n">
-        <v>0.249</v>
+        <v>0.202</v>
       </c>
       <c r="J23" t="n">
-        <v>0.217</v>
+        <v>0.247</v>
       </c>
       <c r="K23" t="n">
-        <v>0.379</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dale</t>
+          <t>gem</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>466040</v>
+        <v>156393</v>
       </c>
       <c r="D24" t="n">
-        <v>10969</v>
+        <v>1917</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>1045</v>
+        <v>16045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.119</v>
       </c>
       <c r="H24" t="n">
-        <v>0.113</v>
+        <v>0.136</v>
       </c>
       <c r="I24" t="n">
-        <v>0.118</v>
+        <v>0.111</v>
       </c>
       <c r="J24" t="n">
-        <v>0.22</v>
+        <v>0.198</v>
       </c>
       <c r="K24" t="n">
-        <v>0.46</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dallas</t>
+          <t>gooding</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>483143</v>
+        <v>143312</v>
       </c>
       <c r="D25" t="n">
-        <v>8910</v>
+        <v>1638</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>1047</v>
+        <v>16047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.095</v>
+        <v>0.211</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.202</v>
       </c>
       <c r="I25" t="n">
-        <v>0.159</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.122</v>
+        <v>0.153</v>
       </c>
       <c r="K25" t="n">
-        <v>0.524</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dekalb</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>926695</v>
+        <v>109042</v>
       </c>
       <c r="D26" t="n">
-        <v>9472</v>
+        <v>1251</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>1049</v>
+        <v>16049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="H26" t="n">
-        <v>0.051</v>
+        <v>0.094</v>
       </c>
       <c r="I26" t="n">
-        <v>0.106</v>
+        <v>0.164</v>
       </c>
       <c r="J26" t="n">
-        <v>0.179</v>
+        <v>0.275</v>
       </c>
       <c r="K26" t="n">
-        <v>0.58</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>elmore</t>
+          <t>jefferson</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>908036</v>
+        <v>242148</v>
       </c>
       <c r="D27" t="n">
-        <v>14663</v>
+        <v>1535</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>1051</v>
+        <v>16051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.042</v>
+        <v>0.099</v>
       </c>
       <c r="H27" t="n">
-        <v>0.095</v>
+        <v>0.208</v>
       </c>
       <c r="I27" t="n">
-        <v>0.127</v>
+        <v>0.192</v>
       </c>
       <c r="J27" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.252</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.485</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>escambia</t>
+          <t>jerome</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>430651</v>
+        <v>302624</v>
       </c>
       <c r="D28" t="n">
-        <v>6523</v>
+        <v>2503</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>1053</v>
+        <v>16053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.114</v>
+        <v>0.175</v>
       </c>
       <c r="H28" t="n">
-        <v>0.026</v>
+        <v>0.219</v>
       </c>
       <c r="I28" t="n">
-        <v>0.188</v>
+        <v>0.096</v>
       </c>
       <c r="J28" t="n">
-        <v>0.285</v>
+        <v>0.167</v>
       </c>
       <c r="K28" t="n">
-        <v>0.387</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>etowah</t>
+          <t>kootenai</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1284056</v>
+        <v>1419238</v>
       </c>
       <c r="D29" t="n">
-        <v>17573</v>
+        <v>14540</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>1055</v>
+        <v>16055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.096</v>
+        <v>0.146</v>
       </c>
       <c r="H29" t="n">
-        <v>0.103</v>
+        <v>0.105</v>
       </c>
       <c r="I29" t="n">
-        <v>0.178</v>
+        <v>0.17</v>
       </c>
       <c r="J29" t="n">
-        <v>0.122</v>
+        <v>0.22</v>
       </c>
       <c r="K29" t="n">
-        <v>0.501</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fayette</t>
+          <t>latah</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>176216</v>
+        <v>246859</v>
       </c>
       <c r="D30" t="n">
-        <v>3211</v>
+        <v>410</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>1057</v>
+        <v>16057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.138</v>
+        <v>0.002</v>
       </c>
       <c r="H30" t="n">
-        <v>0.048</v>
+        <v>0.012</v>
       </c>
       <c r="I30" t="n">
-        <v>0.151</v>
+        <v>0.066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.233</v>
+        <v>0.328</v>
       </c>
       <c r="K30" t="n">
-        <v>0.429</v>
+        <v>0.5920000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>franklin</t>
+          <t>lemhi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>536940</v>
+        <v>55209</v>
       </c>
       <c r="D31" t="n">
-        <v>7700</v>
+        <v>810</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>1059</v>
+        <v>16059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.065</v>
+        <v>0.109</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="I31" t="n">
-        <v>0.223</v>
+        <v>0.231</v>
       </c>
       <c r="J31" t="n">
-        <v>0.156</v>
+        <v>0.125</v>
       </c>
       <c r="K31" t="n">
-        <v>0.484</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>geneva</t>
+          <t>lewis</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>225246</v>
+        <v>31578</v>
       </c>
       <c r="D32" t="n">
-        <v>2889</v>
+        <v>551</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>1061</v>
+        <v>16061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.176</v>
+        <v>0.027</v>
       </c>
       <c r="H32" t="n">
-        <v>0.131</v>
+        <v>0.073</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="J32" t="n">
-        <v>0.158</v>
+        <v>0.285</v>
       </c>
       <c r="K32" t="n">
-        <v>0.445</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>greene</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>102613</v>
+        <v>54237</v>
       </c>
       <c r="D33" t="n">
-        <v>4024</v>
+        <v>888</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>1063</v>
+        <v>16063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="H33" t="n">
-        <v>0.053</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>0.127</v>
+        <v>0.105</v>
       </c>
       <c r="J33" t="n">
-        <v>0.167</v>
+        <v>0.135</v>
       </c>
       <c r="K33" t="n">
-        <v>0.623</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hale</t>
+          <t>madison</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>220203</v>
+        <v>583842</v>
       </c>
       <c r="D34" t="n">
-        <v>7705</v>
+        <v>1529</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>1065</v>
+        <v>16065</v>
       </c>
       <c r="G34" t="n">
-        <v>0.026</v>
+        <v>0.101</v>
       </c>
       <c r="H34" t="n">
-        <v>0.061</v>
+        <v>0.207</v>
       </c>
       <c r="I34" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="J34" t="n">
-        <v>0.191</v>
+        <v>0.25</v>
       </c>
       <c r="K34" t="n">
-        <v>0.639</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>minidoka</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>176604</v>
+        <v>277225</v>
       </c>
       <c r="D35" t="n">
-        <v>2095</v>
+        <v>2623</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F35" t="n">
-        <v>1067</v>
+        <v>16067</v>
       </c>
       <c r="G35" t="n">
-        <v>0.066</v>
+        <v>0.134</v>
       </c>
       <c r="H35" t="n">
-        <v>0.068</v>
+        <v>0.219</v>
       </c>
       <c r="I35" t="n">
-        <v>0.17</v>
+        <v>0.106</v>
       </c>
       <c r="J35" t="n">
-        <v>0.258</v>
+        <v>0.152</v>
       </c>
       <c r="K35" t="n">
-        <v>0.438</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>houston</t>
+          <t>nez perce</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>998871</v>
+        <v>321013</v>
       </c>
       <c r="D36" t="n">
-        <v>12003</v>
+        <v>8089</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F36" t="n">
-        <v>1069</v>
+        <v>16069</v>
       </c>
       <c r="G36" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0.079</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>0.135</v>
+        <v>0.117</v>
       </c>
       <c r="J36" t="n">
-        <v>0.268</v>
+        <v>0.326</v>
       </c>
       <c r="K36" t="n">
-        <v>0.433</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>oneida</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>634298</v>
+        <v>24945</v>
       </c>
       <c r="D37" t="n">
-        <v>5099</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F37" t="n">
-        <v>1071</v>
+        <v>16071</v>
       </c>
       <c r="G37" t="n">
-        <v>0.092</v>
+        <v>0.083</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.173</v>
       </c>
       <c r="I37" t="n">
-        <v>0.11</v>
+        <v>0.153</v>
       </c>
       <c r="J37" t="n">
-        <v>0.249</v>
+        <v>0.185</v>
       </c>
       <c r="K37" t="n">
-        <v>0.46</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>jefferson</t>
+          <t>owyhee</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6949872</v>
+        <v>115998</v>
       </c>
       <c r="D38" t="n">
-        <v>115921</v>
+        <v>2035</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F38" t="n">
-        <v>1073</v>
+        <v>16073</v>
       </c>
       <c r="G38" t="n">
-        <v>0.049</v>
+        <v>0.123</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="I38" t="n">
-        <v>0.107</v>
+        <v>0.146</v>
       </c>
       <c r="J38" t="n">
-        <v>0.179</v>
+        <v>0.171</v>
       </c>
       <c r="K38" t="n">
-        <v>0.628</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>lamar</t>
+          <t>payette</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>133912</v>
+        <v>276102</v>
       </c>
       <c r="D39" t="n">
-        <v>1805</v>
+        <v>2901</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F39" t="n">
-        <v>1075</v>
+        <v>16075</v>
       </c>
       <c r="G39" t="n">
-        <v>0.107</v>
+        <v>0.081</v>
       </c>
       <c r="H39" t="n">
-        <v>0.045</v>
+        <v>0.199</v>
       </c>
       <c r="I39" t="n">
-        <v>0.132</v>
+        <v>0.174</v>
       </c>
       <c r="J39" t="n">
-        <v>0.189</v>
+        <v>0.242</v>
       </c>
       <c r="K39" t="n">
-        <v>0.527</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lauderdale</t>
+          <t>power</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>781971</v>
+        <v>75188</v>
       </c>
       <c r="D40" t="n">
-        <v>11661</v>
+        <v>525</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F40" t="n">
-        <v>1077</v>
+        <v>16077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.093</v>
+        <v>0.078</v>
       </c>
       <c r="H40" t="n">
-        <v>0.119</v>
+        <v>0.205</v>
       </c>
       <c r="I40" t="n">
-        <v>0.141</v>
+        <v>0.152</v>
       </c>
       <c r="J40" t="n">
-        <v>0.179</v>
+        <v>0.185</v>
       </c>
       <c r="K40" t="n">
-        <v>0.469</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lawrence</t>
+          <t>shoshone</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>253441</v>
+        <v>92388</v>
       </c>
       <c r="D41" t="n">
-        <v>6182</v>
+        <v>3929</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F41" t="n">
-        <v>1079</v>
+        <v>16079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.162</v>
+        <v>0.068</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08</v>
+        <v>0.144</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.299</v>
       </c>
       <c r="J41" t="n">
-        <v>0.251</v>
+        <v>0.147</v>
       </c>
       <c r="K41" t="n">
-        <v>0.419</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>lee</t>
+          <t>teton</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1613239</v>
+        <v>89990</v>
       </c>
       <c r="D42" t="n">
-        <v>17661</v>
+        <v>319</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F42" t="n">
-        <v>1081</v>
+        <v>16081</v>
       </c>
       <c r="G42" t="n">
-        <v>0.053</v>
+        <v>0.099</v>
       </c>
       <c r="H42" t="n">
-        <v>0.064</v>
+        <v>0.189</v>
       </c>
       <c r="I42" t="n">
-        <v>0.138</v>
+        <v>0.19</v>
       </c>
       <c r="J42" t="n">
-        <v>0.183</v>
+        <v>0.25</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>limestone</t>
+          <t>twin falls</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>853477</v>
+        <v>1035127</v>
       </c>
       <c r="D43" t="n">
-        <v>8464</v>
+        <v>16243</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F43" t="n">
-        <v>1083</v>
+        <v>16083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.102</v>
+        <v>0.166</v>
       </c>
       <c r="H43" t="n">
-        <v>0.034</v>
+        <v>0.222</v>
       </c>
       <c r="I43" t="n">
-        <v>0.133</v>
+        <v>0.101</v>
       </c>
       <c r="J43" t="n">
-        <v>0.336</v>
+        <v>0.177</v>
       </c>
       <c r="K43" t="n">
-        <v>0.395</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>lowndes</t>
+          <t>valley</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>189971</v>
+        <v>54967</v>
       </c>
       <c r="D44" t="n">
-        <v>7319</v>
+        <v>375</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F44" t="n">
-        <v>1085</v>
+        <v>16085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.12</v>
+        <v>0.041</v>
       </c>
       <c r="H44" t="n">
-        <v>0.073</v>
+        <v>0.118</v>
       </c>
       <c r="I44" t="n">
-        <v>0.145</v>
+        <v>0.102</v>
       </c>
       <c r="J44" t="n">
-        <v>0.199</v>
+        <v>0.378</v>
       </c>
       <c r="K44" t="n">
-        <v>0.464</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>macon</t>
+          <t>washington</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>alabama</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>153507</v>
+        <v>130856</v>
       </c>
       <c r="D45" t="n">
-        <v>5209</v>
+        <v>1977</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F45" t="n">
-        <v>1087</v>
+        <v>16087</v>
       </c>
       <c r="G45" t="n">
-        <v>0.008</v>
+        <v>0.136</v>
       </c>
       <c r="H45" t="n">
-        <v>0.033</v>
+        <v>0.13</v>
       </c>
       <c r="I45" t="n">
-        <v>0.241</v>
+        <v>0.324</v>
       </c>
       <c r="J45" t="n">
         <v>0.172</v>
       </c>
       <c r="K45" t="n">
-        <v>0.545</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>madison</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>2886652</v>
-      </c>
-      <c r="D46" t="n">
-        <v>26505</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1089</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.589</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>marengo</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>259952</v>
-      </c>
-      <c r="D47" t="n">
-        <v>5438</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1091</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.1860000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.512</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>marion</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>300014</v>
-      </c>
-      <c r="D48" t="n">
-        <v>8698</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1093</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.353</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>marshall</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1321129</v>
-      </c>
-      <c r="D49" t="n">
-        <v>14329</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1095</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.479</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>mobile</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>4110588</v>
-      </c>
-      <c r="D50" t="n">
-        <v>85706</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1097</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.506</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>monroe</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>182170</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2441</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1099</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.378</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>montgomery</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>2675196</v>
-      </c>
-      <c r="D52" t="n">
-        <v>52104</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1101</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.513</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>morgan</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1336873</v>
-      </c>
-      <c r="D53" t="n">
-        <v>12586</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1103</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.08199999999999999</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.459</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>perry</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>146280</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1799</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1105</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.187</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.618</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>pickens</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>237592</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4452</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1107</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.584</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>pike</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>338286</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3714</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1109</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>randolph</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>199035</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4934</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1111</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>russell</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>482215</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1104</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1113</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>shelby</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>2095197</v>
-      </c>
-      <c r="D59" t="n">
-        <v>17625</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1117</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.545</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>st. clair</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>843853</v>
-      </c>
-      <c r="D60" t="n">
-        <v>12456</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1115</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>sumter</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>138436</v>
-      </c>
-      <c r="D61" t="n">
-        <v>5182</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1119</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>talladega</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>713502</v>
-      </c>
-      <c r="D62" t="n">
-        <v>10936</v>
-      </c>
-      <c r="E62" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1121</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.361</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>tallapoosa</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>393960</v>
-      </c>
-      <c r="D63" t="n">
-        <v>24120</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1123</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.406</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>tuscaloosa</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>2580784</v>
-      </c>
-      <c r="D64" t="n">
-        <v>35427</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1125</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.532</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>walker</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>756006</v>
-      </c>
-      <c r="D65" t="n">
-        <v>23511</v>
-      </c>
-      <c r="E65" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1127</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.429</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>washington</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>179188</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4064</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1129</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>wilcox</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>156178</v>
-      </c>
-      <c r="D67" t="n">
-        <v>3595</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1131</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.187</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.455</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>winston</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>alabama</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>263117</v>
-      </c>
-      <c r="D68" t="n">
-        <v>4476</v>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1133</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.312</v>
+        <v>0.239</v>
       </c>
     </row>
   </sheetData>
